--- a/UP/УП.xlsx
+++ b/UP/УП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignat\ejd_check\UP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7608942-63DB-461F-8123-3AD60064AE8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C677DC-AB6A-48C4-84CF-CC15573293FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -214,9 +214,6 @@
     <t>наглядная геометрия: конструирование многогранников и тел вращения</t>
   </si>
   <si>
-    <t>второй иностранный язык (китайский)</t>
-  </si>
-  <si>
     <t>алгебра</t>
   </si>
   <si>
@@ -404,6 +401,12 @@
   </si>
   <si>
     <t>технология</t>
+  </si>
+  <si>
+    <t>5 ю</t>
+  </si>
+  <si>
+    <t>китайский язык</t>
   </si>
 </sst>
 </file>
@@ -737,172 +740,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102547F4-551D-472D-A698-D45A2638A1BA}">
-  <dimension ref="A1:AY80"/>
+  <dimension ref="A1:AZ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="5.33203125" customWidth="1"/>
+    <col min="2" max="52" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AX1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -952,13 +958,13 @@
         <v>5</v>
       </c>
       <c r="Q2" s="7">
+        <v>5</v>
+      </c>
+      <c r="R2" s="7">
         <v>4</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>5</v>
-      </c>
-      <c r="S2" s="7">
-        <v>4</v>
       </c>
       <c r="T2" s="7">
         <v>4</v>
@@ -982,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="AA2" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="7">
         <v>2</v>
@@ -1026,7 +1032,7 @@
       <c r="AO2" s="7">
         <v>2</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="7">
         <v>2</v>
       </c>
       <c r="AQ2" s="8">
@@ -1038,7 +1044,7 @@
       <c r="AS2" s="8">
         <v>2</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT2" s="8">
         <v>2</v>
       </c>
       <c r="AU2" s="7">
@@ -1056,8 +1062,11 @@
       <c r="AY2" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1083,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="7">
         <v>2</v>
@@ -1107,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="7">
         <v>3</v>
@@ -1181,7 +1190,7 @@
       <c r="AO3" s="7">
         <v>3</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AP3" s="7">
         <v>3</v>
       </c>
       <c r="AQ3" s="8">
@@ -1193,7 +1202,7 @@
       <c r="AS3" s="8">
         <v>3</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT3" s="8">
         <v>3</v>
       </c>
       <c r="AU3" s="7">
@@ -1211,10 +1220,13 @@
       <c r="AY3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -1277,20 +1289,20 @@
         <v>3</v>
       </c>
       <c r="V4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" s="7">
         <v>4</v>
       </c>
       <c r="X4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7">
         <v>4</v>
       </c>
-      <c r="Z4" s="7">
-        <v>3</v>
-      </c>
       <c r="AA4" s="7">
         <v>3</v>
       </c>
@@ -1304,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="AE4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="7">
         <v>4</v>
       </c>
       <c r="AG4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="7">
         <v>3</v>
@@ -1336,38 +1348,41 @@
       <c r="AO4" s="7">
         <v>3</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="7">
         <v>3</v>
       </c>
       <c r="AQ4" s="8">
         <v>3</v>
       </c>
       <c r="AR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="8">
         <v>4</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AT4" s="7">
         <v>4</v>
       </c>
-      <c r="AT4" s="7">
-        <v>3</v>
-      </c>
       <c r="AU4" s="7">
         <v>3</v>
       </c>
       <c r="AV4" s="7">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="7">
         <v>5</v>
       </c>
-      <c r="AW4" s="7">
-        <v>3</v>
-      </c>
       <c r="AX4" s="7">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="7">
         <v>5</v>
       </c>
-      <c r="AY4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1416,7 +1431,9 @@
       <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7">
+        <v>5</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1451,8 +1468,9 @@
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="7"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -1508,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="S6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="7">
         <v>1</v>
@@ -1529,14 +1547,14 @@
         <v>1</v>
       </c>
       <c r="Z6" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="7"/>
       <c r="AC6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="7">
         <v>2</v>
@@ -1545,20 +1563,20 @@
         <v>2</v>
       </c>
       <c r="AF6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ6" s="7">
-        <v>2</v>
-      </c>
       <c r="AK6" s="7">
         <v>2</v>
       </c>
@@ -1574,30 +1592,33 @@
       <c r="AO6" s="7">
         <v>2</v>
       </c>
-      <c r="AP6" s="8">
+      <c r="AP6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="8">
         <v>4</v>
       </c>
-      <c r="AQ6" s="8">
-        <v>1</v>
-      </c>
       <c r="AR6" s="8">
         <v>1</v>
       </c>
       <c r="AS6" s="8">
         <v>1</v>
       </c>
-      <c r="AT6" s="7">
-        <v>4</v>
+      <c r="AT6" s="8">
+        <v>1</v>
       </c>
       <c r="AU6" s="7">
         <v>4</v>
       </c>
-      <c r="AV6" s="7"/>
+      <c r="AV6" s="7">
+        <v>4</v>
+      </c>
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="7"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1646,7 +1667,9 @@
       <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7">
+        <v>2</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1671,38 +1694,39 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
-      <c r="AP7" s="8">
-        <v>2</v>
-      </c>
+      <c r="AP7" s="7"/>
       <c r="AQ7" s="8">
         <v>2</v>
       </c>
       <c r="AR7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="8">
         <v>4</v>
       </c>
-      <c r="AS7" s="8">
-        <v>2</v>
-      </c>
       <c r="AT7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="7">
         <v>4</v>
       </c>
-      <c r="AW7" s="7">
-        <v>2</v>
-      </c>
       <c r="AX7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="7">
         <v>4</v>
       </c>
-      <c r="AY7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -1755,55 +1779,55 @@
         <v>1</v>
       </c>
       <c r="R8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="7">
         <v>2</v>
       </c>
       <c r="V8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="7">
         <v>2</v>
       </c>
       <c r="AF8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="7">
         <v>1</v>
@@ -1812,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="AK8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="7">
         <v>2</v>
@@ -1826,8 +1850,8 @@
       <c r="AO8" s="7">
         <v>2</v>
       </c>
-      <c r="AP8" s="8">
-        <v>1</v>
+      <c r="AP8" s="7">
+        <v>2</v>
       </c>
       <c r="AQ8" s="8">
         <v>1</v>
@@ -1838,14 +1862,17 @@
       <c r="AS8" s="8">
         <v>1</v>
       </c>
-      <c r="AT8" s="7"/>
+      <c r="AT8" s="8">
+        <v>1</v>
+      </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="7"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1871,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
@@ -1901,10 +1928,10 @@
         <v>2</v>
       </c>
       <c r="S9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="7">
         <v>2</v>
@@ -1946,16 +1973,16 @@
         <v>2</v>
       </c>
       <c r="AH9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="7">
         <v>1</v>
       </c>
       <c r="AK9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="7">
         <v>2</v>
@@ -1969,34 +1996,37 @@
       <c r="AO9" s="7">
         <v>2</v>
       </c>
-      <c r="AP9" s="8">
-        <v>1</v>
+      <c r="AP9" s="7">
+        <v>2</v>
       </c>
       <c r="AQ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="8">
         <v>4</v>
       </c>
-      <c r="AR9" s="8">
-        <v>1</v>
-      </c>
       <c r="AS9" s="8">
         <v>1</v>
       </c>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7">
+      <c r="AT9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7">
         <v>4</v>
       </c>
-      <c r="AV9" s="7">
-        <v>2</v>
-      </c>
       <c r="AW9" s="7">
         <v>2</v>
       </c>
       <c r="AX9" s="7">
         <v>2</v>
       </c>
-      <c r="AY9" s="7"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="7"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2051,9 @@
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2064,8 +2096,9 @@
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="7"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -2090,10 +2123,10 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7">
         <v>1</v>
       </c>
@@ -2112,7 +2145,9 @@
       <c r="P11" s="7">
         <v>1</v>
       </c>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2147,8 +2182,9 @@
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="7"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2173,10 +2209,10 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="7">
         <v>1</v>
       </c>
@@ -2195,7 +2231,9 @@
       <c r="P12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2230,10 +2268,11 @@
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="7"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -2256,7 +2295,9 @@
       <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2264,24 +2305,24 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
+      <c r="V13" s="7"/>
       <c r="W13" s="7">
         <v>1</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7"/>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
+        <v>1</v>
+      </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
@@ -2307,8 +2348,9 @@
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="7"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -2394,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="AC14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="7">
         <v>2</v>
@@ -2412,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="AI14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="7">
         <v>2</v>
@@ -2432,8 +2474,8 @@
       <c r="AO14" s="7">
         <v>2</v>
       </c>
-      <c r="AP14" s="8">
-        <v>1</v>
+      <c r="AP14" s="7">
+        <v>2</v>
       </c>
       <c r="AQ14" s="8">
         <v>1</v>
@@ -2442,9 +2484,9 @@
         <v>1</v>
       </c>
       <c r="AS14" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="8">
         <v>2</v>
       </c>
       <c r="AU14" s="7">
@@ -2462,8 +2504,11 @@
       <c r="AY14" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2476,20 +2521,20 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>2</v>
-      </c>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2523,8 +2568,9 @@
       <c r="AW15" s="7"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="7"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2547,11 +2593,11 @@
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="7">
         <v>1</v>
       </c>
@@ -2567,7 +2613,9 @@
       <c r="P16" s="7">
         <v>1</v>
       </c>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2602,33 +2650,36 @@
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="7"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7">
-        <v>2</v>
-      </c>
-      <c r="S17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7">
+        <v>2</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2637,10 +2688,10 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7">
+        <v>2</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -2663,10 +2714,11 @@
       <c r="AW17" s="7"/>
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="7"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2683,17 +2735,15 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>4</v>
-      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7">
         <v>4</v>
       </c>
       <c r="S18" s="7">
+        <v>4</v>
+      </c>
+      <c r="T18" s="7">
         <v>5</v>
-      </c>
-      <c r="T18" s="7">
-        <v>4</v>
       </c>
       <c r="U18" s="7">
         <v>4</v>
@@ -2720,10 +2770,10 @@
         <v>4</v>
       </c>
       <c r="AC18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="7">
         <v>5</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>4</v>
       </c>
       <c r="AE18" s="7">
         <v>4</v>
@@ -2741,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="AJ18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="7">
         <v>5</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>4</v>
       </c>
       <c r="AL18" s="7">
         <v>4</v>
@@ -2758,7 +2808,9 @@
       <c r="AO18" s="7">
         <v>4</v>
       </c>
-      <c r="AP18" s="7"/>
+      <c r="AP18" s="7">
+        <v>4</v>
+      </c>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
@@ -2768,10 +2820,11 @@
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="7"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2788,17 +2841,15 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>2</v>
       </c>
       <c r="S19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" s="7">
         <v>2</v>
@@ -2825,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="AC19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="7">
         <v>2</v>
@@ -2846,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="AJ19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="7">
         <v>2</v>
@@ -2863,7 +2914,9 @@
       <c r="AO19" s="7">
         <v>2</v>
       </c>
-      <c r="AP19" s="7"/>
+      <c r="AP19" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
@@ -2873,10 +2926,11 @@
       <c r="AW19" s="7"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="7"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2893,9 +2947,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7">
         <v>2</v>
       </c>
@@ -2968,7 +3020,9 @@
       <c r="AO20" s="7">
         <v>2</v>
       </c>
-      <c r="AP20" s="7"/>
+      <c r="AP20" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
@@ -2978,10 +3032,11 @@
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ20" s="7"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2990,9 +3045,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7">
         <v>1</v>
       </c>
@@ -3089,21 +3142,21 @@
       <c r="AO21" s="7">
         <v>1</v>
       </c>
-      <c r="AP21" s="8">
-        <v>2</v>
-      </c>
-      <c r="AQ21" s="7">
-        <v>2</v>
-      </c>
-      <c r="AR21" s="8">
+      <c r="AP21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="8">
         <v>4</v>
       </c>
-      <c r="AS21" s="7">
+      <c r="AT21" s="7">
         <v>4</v>
       </c>
-      <c r="AT21" s="7">
-        <v>2</v>
-      </c>
       <c r="AU21" s="7">
         <v>2</v>
       </c>
@@ -3119,10 +3172,13 @@
       <c r="AY21" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3146,14 +3202,12 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7">
+        <v>2</v>
+      </c>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="7">
-        <v>2</v>
-      </c>
+      <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <v>2</v>
       </c>
@@ -3173,19 +3227,19 @@
         <v>2</v>
       </c>
       <c r="AH22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="7">
         <v>2</v>
       </c>
       <c r="AK22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="7">
         <v>2</v>
@@ -3196,30 +3250,33 @@
       <c r="AO22" s="7">
         <v>2</v>
       </c>
-      <c r="AP22" s="8">
-        <v>1</v>
+      <c r="AP22" s="7">
+        <v>2</v>
       </c>
       <c r="AQ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="8">
         <v>4</v>
       </c>
-      <c r="AR22" s="8">
-        <v>1</v>
-      </c>
       <c r="AS22" s="8">
         <v>1</v>
       </c>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7">
+      <c r="AT22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7">
         <v>4</v>
       </c>
-      <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ22" s="7"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3236,17 +3293,15 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>2</v>
       </c>
       <c r="S23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" s="7">
         <v>2</v>
@@ -3264,19 +3319,19 @@
         <v>2</v>
       </c>
       <c r="Z23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="7">
         <v>2</v>
       </c>
       <c r="AC23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="7">
         <v>2</v>
@@ -3285,52 +3340,52 @@
         <v>2</v>
       </c>
       <c r="AG23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" s="7">
         <v>2</v>
       </c>
       <c r="AJ23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM23" s="7">
         <v>3</v>
       </c>
       <c r="AN23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" s="7">
         <v>2</v>
       </c>
-      <c r="AP23" s="8">
+      <c r="AP23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="8">
         <v>4</v>
       </c>
-      <c r="AQ23" s="8">
-        <v>2</v>
-      </c>
       <c r="AR23" s="8">
         <v>2</v>
       </c>
       <c r="AS23" s="8">
         <v>2</v>
       </c>
-      <c r="AT23" s="7">
-        <v>4</v>
+      <c r="AT23" s="8">
+        <v>2</v>
       </c>
       <c r="AU23" s="7">
         <v>4</v>
       </c>
       <c r="AV23" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="7">
         <v>2</v>
@@ -3341,10 +3396,13 @@
       <c r="AY23" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3353,20 +3411,20 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7">
-        <v>3</v>
-      </c>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7">
+        <v>3</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -3400,10 +3458,11 @@
       <c r="AW24" s="7"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ24" s="7"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3421,10 +3480,10 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7">
+        <v>1</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -3440,10 +3499,10 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7">
+        <v>3</v>
+      </c>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
@@ -3459,10 +3518,11 @@
       <c r="AW25" s="7"/>
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ25" s="7"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3490,10 +3550,10 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7">
+        <v>1</v>
+      </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -3516,10 +3576,11 @@
       <c r="AW26" s="7"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ26" s="7"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3538,10 +3599,10 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7">
-        <v>2</v>
-      </c>
-      <c r="T27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7">
+        <v>2</v>
+      </c>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
@@ -3550,19 +3611,19 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7">
+        <v>2</v>
+      </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
-      <c r="AJ27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7">
+        <v>2</v>
+      </c>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
@@ -3577,10 +3638,11 @@
       <c r="AW27" s="7"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ27" s="7"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3602,17 +3664,17 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7">
-        <v>2</v>
-      </c>
+      <c r="V28" s="7"/>
       <c r="W28" s="7">
         <v>2</v>
       </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="7"/>
+      <c r="X28" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
+        <v>2</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -3638,10 +3700,11 @@
       <c r="AW28" s="7"/>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ28" s="7"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3663,26 +3726,26 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
+      <c r="V29" s="7"/>
       <c r="W29" s="7">
         <v>1</v>
       </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="7"/>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7">
+        <v>1</v>
+      </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7">
+        <v>1</v>
+      </c>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
@@ -3701,10 +3764,11 @@
       <c r="AW29" s="7"/>
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ29" s="7"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3724,41 +3788,41 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="T30" s="7">
-        <v>1</v>
-      </c>
+      <c r="T30" s="7"/>
       <c r="U30" s="7">
         <v>1</v>
       </c>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7">
+        <v>2</v>
+      </c>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
-      <c r="AD30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7">
+        <v>1</v>
+      </c>
       <c r="AF30" s="7"/>
-      <c r="AG30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7">
+        <v>1</v>
+      </c>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="7">
-        <v>2</v>
-      </c>
+      <c r="AL30" s="7"/>
       <c r="AM30" s="7">
         <v>2</v>
       </c>
-      <c r="AN30" s="7"/>
+      <c r="AN30" s="7">
+        <v>2</v>
+      </c>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
@@ -3770,10 +3834,11 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ30" s="7"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3790,18 +3855,18 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="7">
-        <v>1</v>
-      </c>
+      <c r="T31" s="7"/>
       <c r="U31" s="7">
         <v>1</v>
       </c>
-      <c r="V31" s="7"/>
+      <c r="V31" s="7">
+        <v>1</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -3831,10 +3896,11 @@
       <c r="AW31" s="7"/>
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ31" s="7"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3844,9 +3910,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7">
-        <v>2</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7">
         <v>2</v>
       </c>
@@ -3865,16 +3929,18 @@
       <c r="P32" s="7">
         <v>2</v>
       </c>
-      <c r="Q32" s="7"/>
+      <c r="Q32" s="7">
+        <v>2</v>
+      </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="7">
-        <v>2</v>
-      </c>
+      <c r="T32" s="7"/>
       <c r="U32" s="7">
         <v>2</v>
       </c>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7">
+        <v>2</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -3904,10 +3970,11 @@
       <c r="AW32" s="7"/>
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ32" s="7"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3931,22 +3998,22 @@
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
-      <c r="X33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
       <c r="Z33" s="7"/>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="7"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
-      <c r="AH33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="7"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8">
+        <v>1</v>
+      </c>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
@@ -3963,10 +4030,11 @@
       <c r="AW33" s="7"/>
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ33" s="7"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3990,10 +4058,10 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7">
+        <v>1</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -4020,10 +4088,11 @@
       <c r="AW34" s="7"/>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ34" s="7"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4051,13 +4120,11 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="7"/>
       <c r="AE35" s="7">
         <v>1</v>
       </c>
@@ -4070,18 +4137,18 @@
       <c r="AH35" s="7">
         <v>1</v>
       </c>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="7"/>
+      <c r="AI35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7">
+        <v>1</v>
+      </c>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
-      <c r="AP35" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP35" s="7"/>
       <c r="AQ35" s="8">
         <v>1</v>
       </c>
@@ -4091,16 +4158,19 @@
       <c r="AS35" s="8">
         <v>1</v>
       </c>
-      <c r="AT35" s="7"/>
+      <c r="AT35" s="8">
+        <v>1</v>
+      </c>
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ35" s="7"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4127,9 +4197,7 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA36" s="7"/>
       <c r="AB36" s="7">
         <v>1</v>
       </c>
@@ -4151,7 +4219,9 @@
       <c r="AH36" s="7">
         <v>1</v>
       </c>
-      <c r="AI36" s="7"/>
+      <c r="AI36" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
@@ -4168,10 +4238,11 @@
       <c r="AW36" s="7"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ36" s="7"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -4203,10 +4274,10 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="7">
-        <v>2</v>
-      </c>
-      <c r="AG37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7">
+        <v>2</v>
+      </c>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
@@ -4225,10 +4296,11 @@
       <c r="AW37" s="7"/>
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ37" s="7"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -4255,20 +4327,20 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7">
+        <v>2</v>
+      </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="7">
-        <v>2</v>
-      </c>
-      <c r="AJ38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7">
+        <v>2</v>
+      </c>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
@@ -4280,18 +4352,19 @@
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
-      <c r="AV38" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV38" s="7"/>
       <c r="AW38" s="7">
         <v>2</v>
       </c>
-      <c r="AX38" s="7"/>
+      <c r="AX38" s="7">
+        <v>2</v>
+      </c>
       <c r="AY38" s="7"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ38" s="7"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4300,10 +4373,10 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7">
-        <v>3</v>
-      </c>
-      <c r="J39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7">
+        <v>3</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -4320,10 +4393,10 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
-      <c r="AA39" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7">
+        <v>3</v>
+      </c>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
@@ -4347,10 +4420,11 @@
       <c r="AW39" s="7"/>
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ39" s="7"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4381,26 +4455,26 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
-      <c r="AE40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7">
+        <v>1</v>
+      </c>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
-      <c r="AK40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7">
+        <v>1</v>
+      </c>
       <c r="AM40" s="7"/>
-      <c r="AN40" s="7">
-        <v>1</v>
-      </c>
+      <c r="AN40" s="7"/>
       <c r="AO40" s="7">
         <v>1</v>
       </c>
-      <c r="AP40" s="7"/>
+      <c r="AP40" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
@@ -4410,10 +4484,11 @@
       <c r="AW40" s="7"/>
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ40" s="7"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4440,19 +4515,19 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
-      <c r="AA41" s="8"/>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8" t="s">
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
-      <c r="AI41" s="7"/>
+      <c r="AI41" s="8"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
@@ -4469,10 +4544,11 @@
       <c r="AW41" s="7"/>
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ41" s="7"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4499,17 +4575,17 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
-      <c r="AA42" s="8"/>
+      <c r="AA42" s="7"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
       <c r="AG42" s="8"/>
-      <c r="AH42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="7"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8">
+        <v>1</v>
+      </c>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
       <c r="AL42" s="7"/>
@@ -4526,10 +4602,11 @@
       <c r="AW42" s="7"/>
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ42" s="7"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4556,17 +4633,17 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
-      <c r="AA43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="8"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="8">
+        <v>1</v>
+      </c>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
-      <c r="AI43" s="7"/>
+      <c r="AI43" s="8"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
@@ -4583,10 +4660,11 @@
       <c r="AW43" s="7"/>
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ43" s="7"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4621,9 +4699,7 @@
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
-      <c r="AI44" s="8">
-        <v>1</v>
-      </c>
+      <c r="AI44" s="7"/>
       <c r="AJ44" s="8">
         <v>1</v>
       </c>
@@ -4642,7 +4718,9 @@
       <c r="AO44" s="8">
         <v>1</v>
       </c>
-      <c r="AP44" s="7"/>
+      <c r="AP44" s="8">
+        <v>1</v>
+      </c>
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7"/>
       <c r="AS44" s="7"/>
@@ -4652,10 +4730,11 @@
       <c r="AW44" s="7"/>
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ44" s="7"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4690,10 +4769,10 @@
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
-      <c r="AI45" s="7">
-        <v>3</v>
-      </c>
-      <c r="AJ45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7">
+        <v>3</v>
+      </c>
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
@@ -4709,10 +4788,11 @@
       <c r="AW45" s="7"/>
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ45" s="7"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4752,10 +4832,10 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
-      <c r="AN46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7">
+        <v>1</v>
+      </c>
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
@@ -4766,10 +4846,11 @@
       <c r="AW46" s="7"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ46" s="7"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4809,10 +4890,10 @@
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
-      <c r="AN47" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7">
+        <v>1</v>
+      </c>
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
@@ -4823,10 +4904,11 @@
       <c r="AW47" s="7"/>
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ47" s="7"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4863,16 +4945,16 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="7">
-        <v>2</v>
-      </c>
-      <c r="AL48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7">
+        <v>2</v>
+      </c>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
-      <c r="AO48" s="7">
-        <v>2</v>
-      </c>
-      <c r="AP48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
       <c r="AS48" s="7"/>
@@ -4882,10 +4964,11 @@
       <c r="AW48" s="7"/>
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ48" s="7"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4922,10 +5005,10 @@
       <c r="AH49" s="7"/>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
-      <c r="AK49" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7">
+        <v>1</v>
+      </c>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
@@ -4939,10 +5022,11 @@
       <c r="AW49" s="7"/>
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ49" s="7"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4979,31 +5063,32 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
-      <c r="AK50" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7">
+        <v>1</v>
+      </c>
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
       <c r="AO50" s="7"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR50" s="8"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8">
+        <v>1</v>
+      </c>
       <c r="AS50" s="8"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="7">
-        <v>2</v>
-      </c>
-      <c r="AV50" s="7"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7">
+        <v>2</v>
+      </c>
       <c r="AW50" s="7"/>
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ50" s="7"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -5045,26 +5130,27 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
-      <c r="AP51" s="8">
-        <v>4</v>
-      </c>
+      <c r="AP51" s="7"/>
       <c r="AQ51" s="8">
         <v>4</v>
       </c>
       <c r="AR51" s="8">
         <v>4</v>
       </c>
-      <c r="AS51" s="7">
+      <c r="AS51" s="8">
         <v>4</v>
       </c>
-      <c r="AT51" s="7"/>
+      <c r="AT51" s="7">
+        <v>4</v>
+      </c>
       <c r="AU51" s="7"/>
       <c r="AV51" s="7"/>
       <c r="AW51" s="7"/>
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ51" s="7"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
@@ -5108,28 +5194,29 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
       <c r="AO52" s="7"/>
-      <c r="AP52" s="8">
-        <v>2</v>
-      </c>
+      <c r="AP52" s="7"/>
       <c r="AQ52" s="8">
         <v>2</v>
       </c>
       <c r="AR52" s="8">
         <v>2</v>
       </c>
-      <c r="AS52" s="7">
-        <v>2</v>
-      </c>
-      <c r="AT52" s="7"/>
+      <c r="AS52" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>2</v>
+      </c>
       <c r="AU52" s="7"/>
       <c r="AV52" s="7"/>
       <c r="AW52" s="7"/>
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
-    </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ52" s="7"/>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -5171,9 +5258,7 @@
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
       <c r="AO53" s="7"/>
-      <c r="AP53" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP53" s="7"/>
       <c r="AQ53" s="8">
         <v>1</v>
       </c>
@@ -5183,16 +5268,19 @@
       <c r="AS53" s="8">
         <v>1</v>
       </c>
-      <c r="AT53" s="7"/>
+      <c r="AT53" s="8">
+        <v>1</v>
+      </c>
       <c r="AU53" s="7"/>
       <c r="AV53" s="7"/>
       <c r="AW53" s="7"/>
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
-    </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ53" s="7"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -5234,24 +5322,25 @@
       <c r="AM54" s="7"/>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
-      <c r="AP54" s="8"/>
+      <c r="AP54" s="7"/>
       <c r="AQ54" s="8"/>
-      <c r="AR54" s="8">
-        <v>2</v>
-      </c>
+      <c r="AR54" s="8"/>
       <c r="AS54" s="8">
         <v>2</v>
       </c>
-      <c r="AT54" s="7"/>
+      <c r="AT54" s="8">
+        <v>2</v>
+      </c>
       <c r="AU54" s="7"/>
       <c r="AV54" s="7"/>
       <c r="AW54" s="7"/>
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ54" s="7"/>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -5293,24 +5382,25 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
       <c r="AO55" s="7"/>
-      <c r="AP55" s="8">
-        <v>2</v>
-      </c>
-      <c r="AQ55" s="8"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="8">
+        <v>2</v>
+      </c>
       <c r="AR55" s="8"/>
       <c r="AS55" s="8"/>
-      <c r="AT55" s="7"/>
-      <c r="AU55" s="7">
-        <v>2</v>
-      </c>
-      <c r="AV55" s="7"/>
+      <c r="AT55" s="8"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7">
+        <v>2</v>
+      </c>
       <c r="AW55" s="7"/>
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
-    </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ55" s="7"/>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -5352,9 +5442,7 @@
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
-      <c r="AP56" s="8">
-        <v>2</v>
-      </c>
+      <c r="AP56" s="7"/>
       <c r="AQ56" s="8">
         <v>2</v>
       </c>
@@ -5364,16 +5452,19 @@
       <c r="AS56" s="8">
         <v>2</v>
       </c>
-      <c r="AT56" s="7"/>
+      <c r="AT56" s="8">
+        <v>2</v>
+      </c>
       <c r="AU56" s="7"/>
       <c r="AV56" s="7"/>
       <c r="AW56" s="7"/>
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ56" s="7"/>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5415,9 +5506,7 @@
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
-      <c r="AP57" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP57" s="7"/>
       <c r="AQ57" s="8">
         <v>1</v>
       </c>
@@ -5427,16 +5516,19 @@
       <c r="AS57" s="8">
         <v>1</v>
       </c>
-      <c r="AT57" s="7"/>
+      <c r="AT57" s="8">
+        <v>1</v>
+      </c>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
       <c r="AW57" s="7"/>
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
-    </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ57" s="7"/>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5478,9 +5570,7 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
-      <c r="AP58" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP58" s="7"/>
       <c r="AQ58" s="8">
         <v>1</v>
       </c>
@@ -5490,16 +5580,19 @@
       <c r="AS58" s="8">
         <v>1</v>
       </c>
-      <c r="AT58" s="7"/>
+      <c r="AT58" s="8">
+        <v>1</v>
+      </c>
       <c r="AU58" s="7"/>
       <c r="AV58" s="7"/>
       <c r="AW58" s="7"/>
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ58" s="7"/>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -5541,9 +5634,7 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
-      <c r="AP59" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP59" s="7"/>
       <c r="AQ59" s="8">
         <v>1</v>
       </c>
@@ -5553,16 +5644,19 @@
       <c r="AS59" s="8">
         <v>1</v>
       </c>
-      <c r="AT59" s="7"/>
+      <c r="AT59" s="8">
+        <v>1</v>
+      </c>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
       <c r="AW59" s="7"/>
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
-    </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ59" s="7"/>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -5604,9 +5698,7 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
-      <c r="AP60" s="8">
-        <v>1</v>
-      </c>
+      <c r="AP60" s="7"/>
       <c r="AQ60" s="8">
         <v>1</v>
       </c>
@@ -5616,16 +5708,19 @@
       <c r="AS60" s="8">
         <v>1</v>
       </c>
-      <c r="AT60" s="7"/>
+      <c r="AT60" s="8">
+        <v>1</v>
+      </c>
       <c r="AU60" s="7"/>
       <c r="AV60" s="7"/>
       <c r="AW60" s="7"/>
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
-    </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ60" s="7"/>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5667,24 +5762,25 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
-      <c r="AP61" s="8"/>
+      <c r="AP61" s="7"/>
       <c r="AQ61" s="8"/>
-      <c r="AR61" s="8">
-        <v>2</v>
-      </c>
+      <c r="AR61" s="8"/>
       <c r="AS61" s="8">
         <v>2</v>
       </c>
-      <c r="AT61" s="7"/>
+      <c r="AT61" s="8">
+        <v>2</v>
+      </c>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
       <c r="AW61" s="7"/>
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ61" s="7"/>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5726,22 +5822,23 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
-      <c r="AP62" s="8">
-        <v>2</v>
-      </c>
-      <c r="AQ62" s="8"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="8">
+        <v>2</v>
+      </c>
       <c r="AR62" s="8"/>
       <c r="AS62" s="8"/>
-      <c r="AT62" s="7"/>
+      <c r="AT62" s="8"/>
       <c r="AU62" s="7"/>
       <c r="AV62" s="7"/>
       <c r="AW62" s="7"/>
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
-    </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ62" s="7"/>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5783,22 +5880,23 @@
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
-      <c r="AP63" s="8"/>
-      <c r="AQ63" s="8">
-        <v>2</v>
-      </c>
-      <c r="AR63" s="8"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="8"/>
+      <c r="AR63" s="8">
+        <v>2</v>
+      </c>
       <c r="AS63" s="8"/>
-      <c r="AT63" s="7"/>
+      <c r="AT63" s="8"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
       <c r="AW63" s="7"/>
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
-    </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ63" s="7"/>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5844,9 +5942,7 @@
       <c r="AQ64" s="7"/>
       <c r="AR64" s="7"/>
       <c r="AS64" s="7"/>
-      <c r="AT64" s="7">
-        <v>4</v>
-      </c>
+      <c r="AT64" s="7"/>
       <c r="AU64" s="7">
         <v>4</v>
       </c>
@@ -5862,10 +5958,13 @@
       <c r="AY64" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ64" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5911,9 +6010,7 @@
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
-      <c r="AT65" s="7">
-        <v>2</v>
-      </c>
+      <c r="AT65" s="7"/>
       <c r="AU65" s="7">
         <v>2</v>
       </c>
@@ -5929,10 +6026,13 @@
       <c r="AY65" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ65" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -5978,9 +6078,7 @@
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
-      <c r="AT66" s="7">
-        <v>1</v>
-      </c>
+      <c r="AT66" s="7"/>
       <c r="AU66" s="7">
         <v>1</v>
       </c>
@@ -5996,10 +6094,13 @@
       <c r="AY66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6049,16 +6150,17 @@
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
       <c r="AW67" s="7"/>
-      <c r="AX67" s="7">
-        <v>2</v>
-      </c>
+      <c r="AX67" s="7"/>
       <c r="AY67" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ67" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6108,16 +6210,17 @@
       <c r="AU68" s="7"/>
       <c r="AV68" s="7"/>
       <c r="AW68" s="7"/>
-      <c r="AX68" s="7">
-        <v>2</v>
-      </c>
+      <c r="AX68" s="7"/>
       <c r="AY68" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ68" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6163,9 +6266,7 @@
       <c r="AQ69" s="7"/>
       <c r="AR69" s="7"/>
       <c r="AS69" s="7"/>
-      <c r="AT69" s="7">
-        <v>2</v>
-      </c>
+      <c r="AT69" s="7"/>
       <c r="AU69" s="7">
         <v>2</v>
       </c>
@@ -6181,10 +6282,13 @@
       <c r="AY69" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6235,13 +6339,14 @@
       <c r="AV70" s="7"/>
       <c r="AW70" s="7"/>
       <c r="AX70" s="7"/>
-      <c r="AY70" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY70" s="7"/>
+      <c r="AZ70" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6292,13 +6397,14 @@
       <c r="AV71" s="7"/>
       <c r="AW71" s="7"/>
       <c r="AX71" s="7"/>
-      <c r="AY71" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY71" s="7"/>
+      <c r="AZ71" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6349,13 +6455,14 @@
       <c r="AV72" s="7"/>
       <c r="AW72" s="7"/>
       <c r="AX72" s="7"/>
-      <c r="AY72" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY72" s="7"/>
+      <c r="AZ72" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6404,15 +6511,16 @@
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
       <c r="AV73" s="7"/>
-      <c r="AW73" s="7">
-        <v>3</v>
-      </c>
-      <c r="AX73" s="7"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7">
+        <v>3</v>
+      </c>
       <c r="AY73" s="7"/>
-    </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ73" s="7"/>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6461,15 +6569,16 @@
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
       <c r="AV74" s="7"/>
-      <c r="AW74" s="7">
-        <v>3</v>
-      </c>
-      <c r="AX74" s="7"/>
+      <c r="AW74" s="7"/>
+      <c r="AX74" s="7">
+        <v>3</v>
+      </c>
       <c r="AY74" s="7"/>
-    </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ74" s="7"/>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6518,15 +6627,16 @@
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
       <c r="AV75" s="7"/>
-      <c r="AW75" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX75" s="7"/>
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7">
+        <v>1</v>
+      </c>
       <c r="AY75" s="7"/>
-    </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ75" s="7"/>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6574,16 +6684,17 @@
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
-      <c r="AV76" s="7">
-        <v>2</v>
-      </c>
-      <c r="AW76" s="7"/>
+      <c r="AV76" s="7"/>
+      <c r="AW76" s="7">
+        <v>2</v>
+      </c>
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
-    </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ76" s="7"/>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6629,20 +6740,21 @@
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
       <c r="AS77" s="7"/>
-      <c r="AT77" s="7">
-        <v>2</v>
-      </c>
+      <c r="AT77" s="7"/>
       <c r="AU77" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV77" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="AV77" s="7">
+        <v>1</v>
+      </c>
       <c r="AW77" s="7"/>
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
-    </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ77" s="7"/>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6688,18 +6800,19 @@
       <c r="AQ78" s="7"/>
       <c r="AR78" s="7"/>
       <c r="AS78" s="7"/>
-      <c r="AT78" s="7">
-        <v>2</v>
-      </c>
-      <c r="AU78" s="7"/>
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7">
+        <v>2</v>
+      </c>
       <c r="AV78" s="7"/>
       <c r="AW78" s="7"/>
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
-    </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ78" s="7"/>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6710,9 +6823,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="7">
-        <v>1</v>
-      </c>
+      <c r="K79" s="7"/>
       <c r="L79" s="7">
         <v>1</v>
       </c>
@@ -6728,7 +6839,9 @@
       <c r="P79" s="7">
         <v>1</v>
       </c>
-      <c r="Q79" s="7"/>
+      <c r="Q79" s="7">
+        <v>1</v>
+      </c>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -6763,8 +6876,9 @@
       <c r="AW79" s="7"/>
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
-    </row>
-    <row r="80" spans="1:51" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="AZ79" s="7"/>
+    </row>
+    <row r="80" spans="1:52" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
   </sheetData>
